--- a/src/assets/img/_invitaciones.xlsx
+++ b/src/assets/img/_invitaciones.xlsx
@@ -1,41 +1,350 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siste\Documents\git_repos\boda-app\src\assets\img\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E229B83D-61C3-4D69-BB52-288C049A7F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>NUMERO DE BOLETOS</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>CONFIRMADOS</t>
+  </si>
+  <si>
+    <t>MENSAJE</t>
+  </si>
+  <si>
+    <t>ALEJANDRA ESPINOSA</t>
+  </si>
+  <si>
+    <t>FYC001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ALEJANDRA MARIN</t>
+  </si>
+  <si>
+    <t>FYC005</t>
+  </si>
+  <si>
+    <t>ALEJANDRA RAMOS</t>
+  </si>
+  <si>
+    <t>FYC009</t>
+  </si>
+  <si>
+    <t>ALEJANDRO MANZANO</t>
+  </si>
+  <si>
+    <t>FYC013</t>
+  </si>
+  <si>
+    <t>ALFONSO</t>
+  </si>
+  <si>
+    <t>FYC017</t>
+  </si>
+  <si>
+    <t>ALICIA TREJO</t>
+  </si>
+  <si>
+    <t>FYC021</t>
+  </si>
+  <si>
+    <t>ANDREA RAMOS</t>
+  </si>
+  <si>
+    <t>FYC025</t>
+  </si>
+  <si>
+    <t>ANDRES OSORNO</t>
+  </si>
+  <si>
+    <t>FYC029</t>
+  </si>
+  <si>
+    <t>BRUNO BAYARDO</t>
+  </si>
+  <si>
+    <t>FYC033</t>
+  </si>
+  <si>
+    <t>CELIA TREJO</t>
+  </si>
+  <si>
+    <t>FYC037</t>
+  </si>
+  <si>
+    <t>CESAR VARELA</t>
+  </si>
+  <si>
+    <t>FYC041</t>
+  </si>
+  <si>
+    <t>CHRISTIAN TORRES</t>
+  </si>
+  <si>
+    <t>FYC045</t>
+  </si>
+  <si>
+    <t>CLAUDIA DIAZ</t>
+  </si>
+  <si>
+    <t>FYC049</t>
+  </si>
+  <si>
+    <t>CLAUDIA REYES</t>
+  </si>
+  <si>
+    <t>FYC053</t>
+  </si>
+  <si>
+    <t>DIEGO RIOS</t>
+  </si>
+  <si>
+    <t>FYC057</t>
+  </si>
+  <si>
+    <t>EMILIO MERCKEL</t>
+  </si>
+  <si>
+    <t>FYC061</t>
+  </si>
+  <si>
+    <t>FAMILIA ANGUIANO MIRAMONTES</t>
+  </si>
+  <si>
+    <t>FYC065</t>
+  </si>
+  <si>
+    <t>FAMILIA ESPINOSA ANGUIANO</t>
+  </si>
+  <si>
+    <t>FYC069</t>
+  </si>
+  <si>
+    <t>FAMILIA ESPINOSA REYNOSO</t>
+  </si>
+  <si>
+    <t>FYC073</t>
+  </si>
+  <si>
+    <t>FAMILIA IÑIGUEZ ESPINOSA</t>
+  </si>
+  <si>
+    <t>FYC077</t>
+  </si>
+  <si>
+    <t>FAMILIA REYES ESPINOSA</t>
+  </si>
+  <si>
+    <t>FYC081</t>
+  </si>
+  <si>
+    <t>FAMILIA REYES GONZALEZ</t>
+  </si>
+  <si>
+    <t>FYC085</t>
+  </si>
+  <si>
+    <t>FAMILIA RIOS TREJO</t>
+  </si>
+  <si>
+    <t>FYC089</t>
+  </si>
+  <si>
+    <t>FAMILIA SANTANA DEL POZO</t>
+  </si>
+  <si>
+    <t>FYC093</t>
+  </si>
+  <si>
+    <t>FAMILIA SANTANA RIOS</t>
+  </si>
+  <si>
+    <t>FYC097</t>
+  </si>
+  <si>
+    <t>GENARO</t>
+  </si>
+  <si>
+    <t>FYC101</t>
+  </si>
+  <si>
+    <t>JAZMIN LOZANO</t>
+  </si>
+  <si>
+    <t>FYC105</t>
+  </si>
+  <si>
+    <t>JORGE GALVAN</t>
+  </si>
+  <si>
+    <t>FYC109</t>
+  </si>
+  <si>
+    <t>JOSE ALBERTO</t>
+  </si>
+  <si>
+    <t>FYC113</t>
+  </si>
+  <si>
+    <t>JUANA</t>
+  </si>
+  <si>
+    <t>FYC117</t>
+  </si>
+  <si>
+    <t>JULIETA MARIN</t>
+  </si>
+  <si>
+    <t>FYC121</t>
+  </si>
+  <si>
+    <t>KAREN DIAZ</t>
+  </si>
+  <si>
+    <t>FYC125</t>
+  </si>
+  <si>
+    <t>LILIANA MOLINA</t>
+  </si>
+  <si>
+    <t>FYC129</t>
+  </si>
+  <si>
+    <t>LUIS MOLINA</t>
+  </si>
+  <si>
+    <t>FYC133</t>
+  </si>
+  <si>
+    <t>MA. DEL REFUGIO GOMEZ</t>
+  </si>
+  <si>
+    <t>FYC137</t>
+  </si>
+  <si>
+    <t>MARIA ELENA TREJO</t>
+  </si>
+  <si>
+    <t>FYC141</t>
+  </si>
+  <si>
+    <t>MIGUEL ESPINOSA</t>
+  </si>
+  <si>
+    <t>FYC145</t>
+  </si>
+  <si>
+    <t>MONICA MARIN</t>
+  </si>
+  <si>
+    <t>FYC149</t>
+  </si>
+  <si>
+    <t>NORMA ESPINOSA</t>
+  </si>
+  <si>
+    <t>FYC153</t>
+  </si>
+  <si>
+    <t>OMAR DE LA TORRE</t>
+  </si>
+  <si>
+    <t>FYC157</t>
+  </si>
+  <si>
+    <t>OSCAR DE LA TORRE</t>
+  </si>
+  <si>
+    <t>FYC161</t>
+  </si>
+  <si>
+    <t>PABLO GARCIA</t>
+  </si>
+  <si>
+    <t>FYC165</t>
+  </si>
+  <si>
+    <t>ROSARIO MURILLO</t>
+  </si>
+  <si>
+    <t>FYC169</t>
+  </si>
+  <si>
+    <t>ROSINA TREJO</t>
+  </si>
+  <si>
+    <t>FYC173</t>
+  </si>
+  <si>
+    <t>SILVIA ESPINOSA</t>
+  </si>
+  <si>
+    <t>FYC177</t>
+  </si>
+  <si>
+    <t>SONIA RAMIREZ</t>
+  </si>
+  <si>
+    <t>FYC181</t>
+  </si>
+  <si>
+    <t>TERESA TREJO</t>
+  </si>
+  <si>
+    <t>FYC185</t>
+  </si>
+  <si>
+    <t>VERONICA</t>
+  </si>
+  <si>
+    <t>FYC189</t>
+  </si>
+  <si>
+    <t>YARI</t>
+  </si>
+  <si>
+    <t>FYC193</t>
+  </si>
+  <si>
+    <t>YAZMIN GUADALUPE</t>
+  </si>
+  <si>
+    <t>FYC197</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +374,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,588 +713,589 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>NOMBRE</v>
-      </c>
-      <c r="B1" t="str">
-        <v>NUMERO DE BOLETOS</v>
-      </c>
-      <c r="C1" t="str">
-        <v>CODIGO</v>
-      </c>
-      <c r="D1" t="str">
-        <v>CONFIRMADOS</v>
-      </c>
-      <c r="E1" t="str">
-        <v>MENSAJE</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>ALEJANDRA ESPINOSA</v>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="str">
-        <v>FYC001</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>No va a poder ir el hermanillo</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>ALEJANDRA MARIN</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="str">
-        <v>FYC005</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>ALEJANDRA RAMOS</v>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
-        <v>FYC009</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>ALEJANDRO MANZANO</v>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="str">
-        <v>FYC013</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>ALFONSO</v>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="str">
-        <v>FYC017</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>ALICIA TREJO</v>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="str">
-        <v>FYC021</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>ANDREA RAMOS</v>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="str">
-        <v>FYC025</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>ANDRES OSORNO</v>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="str">
-        <v>FYC029</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>BRUNO BAYARDO</v>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="str">
-        <v>FYC033</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>CELIA TREJO</v>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="str">
-        <v>FYC037</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>CESAR VARELA</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="str">
-        <v>FYC041</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>CHRISTIAN TORRES</v>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="str">
-        <v>FYC045</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>CLAUDIA DIAZ</v>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="str">
-        <v>FYC049</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>CLAUDIA REYES</v>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="str">
-        <v>FYC053</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>DIEGO RIOS</v>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="str">
-        <v>FYC057</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>EMILIO MERCKEL</v>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="str">
-        <v>FYC061</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>FAMILIA ANGUIANO MIRAMONTES</v>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" t="str">
-        <v>FYC065</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>FAMILIA ESPINOSA ANGUIANO</v>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" t="str">
-        <v>FYC069</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>FAMILIA ESPINOSA REYNOSO</v>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" t="str">
-        <v>FYC073</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>FAMILIA IÑIGUEZ ESPINOSA</v>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" t="str">
-        <v>FYC077</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>FAMILIA REYES ESPINOSA</v>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" t="str">
-        <v>FYC081</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>FAMILIA REYES GONZALEZ</v>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" t="str">
-        <v>FYC085</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>FAMILIA RIOS TREJO</v>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" t="str">
-        <v>FYC089</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>FAMILIA SANTANA DEL POZO</v>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" t="str">
-        <v>FYC093</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>FAMILIA SANTANA RIOS</v>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" t="str">
-        <v>FYC097</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>GENARO</v>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" t="str">
-        <v>FYC101</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>JAZMIN LOZANO</v>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" t="str">
-        <v>FYC105</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>JORGE GALVAN</v>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" t="str">
-        <v>FYC109</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>JOSE ALBERTO</v>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" t="str">
-        <v>FYC113</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>JUANA</v>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" t="str">
-        <v>FYC117</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>JULIETA MARIN</v>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" t="str">
-        <v>FYC121</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>KAREN DIAZ</v>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="C33" t="str">
-        <v>FYC125</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>LILIANA MOLINA</v>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" t="str">
-        <v>FYC129</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>LUIS MOLINA</v>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" t="str">
-        <v>FYC133</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>MA. DEL REFUGIO GOMEZ</v>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" t="str">
-        <v>FYC137</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>MARIA ELENA TREJO</v>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" t="str">
-        <v>FYC141</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>MIGUEL ESPINOSA</v>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>78</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="C38" t="str">
-        <v>FYC145</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>MONICA MARIN</v>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>80</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39" t="str">
-        <v>FYC149</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>NORMA ESPINOSA</v>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>82</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" t="str">
-        <v>FYC153</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>OMAR DE LA TORRE</v>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" t="str">
-        <v>FYC157</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>OSCAR DE LA TORRE</v>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>86</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" t="str">
-        <v>FYC161</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>PABLO GARCIA</v>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>88</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" t="str">
-        <v>FYC165</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>ROSARIO MURILLO</v>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>90</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" t="str">
-        <v>FYC169</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>ROSINA TREJO</v>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>92</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
-      <c r="C45" t="str">
-        <v>FYC173</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>SILVIA ESPINOSA</v>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" t="str">
-        <v>FYC177</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>SONIA RAMIREZ</v>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
-      <c r="C47" t="str">
-        <v>FYC181</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>TERESA TREJO</v>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
-      <c r="C48" t="str">
-        <v>FYC185</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>VERONICA</v>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>100</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
-      <c r="C49" t="str">
-        <v>FYC189</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>YARI</v>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>102</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
-      <c r="C50" t="str">
-        <v>FYC193</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>YAZMIN GUADALUPE</v>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>104</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
-      <c r="C51" t="str">
-        <v>FYC197</v>
+      <c r="C51" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E51"/>
+    <ignoredError sqref="A1:E1 A3:E51 A2:C2 E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>